--- a/doc/jquery.xlsx
+++ b/doc/jquery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Downloads\sdg-repo\SDG-PoC-on-Automatic-Tagging-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873D410B-8E0F-49F5-B0BA-674F4B132785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF0B70-E201-4BDF-B120-0DB79B5B2E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DF6E416B-FA50-40FB-BCD2-1EFD089EDD98}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DF6E416B-FA50-40FB-BCD2-1EFD089EDD98}"/>
   </bookViews>
   <sheets>
     <sheet name="links_sites" sheetId="1" r:id="rId1"/>
@@ -1605,6 +1605,1023 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>jQuery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> version used in MS using SDG service</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>jquery_version!$E$2:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.11.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.12.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.12.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.12.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>jquery_version!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7382-447E-91D1-9CCF74D71742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1929181695"/>
+        <c:axId val="1929183359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1929181695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929183359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1929183359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929181695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5786F5-1396-4E1C-956F-2A9C18544192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3074,7 +4091,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" ref="B129:B160" si="4">LEFT(A129,FIND("/",A129,9)-1)</f>
+        <f t="shared" ref="B129:B159" si="4">LEFT(A129,FIND("/",A129,9)-1)</f>
         <v>https://www.agenziaentrate.gov.it</v>
       </c>
     </row>
@@ -4996,7 +6013,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5867,8 +6884,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6454,5 +7471,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/jquery.xlsx
+++ b/doc/jquery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Downloads\sdg-repo\SDG-PoC-on-Automatic-Tagging-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF0B70-E201-4BDF-B120-0DB79B5B2E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249B852-C667-48F4-94DB-8FD4234ED8AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DF6E416B-FA50-40FB-BCD2-1EFD089EDD98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DF6E416B-FA50-40FB-BCD2-1EFD089EDD98}"/>
   </bookViews>
   <sheets>
     <sheet name="links_sites" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="486">
   <si>
     <t>http://grcontactpointcpr.ggb.gr/?lang=en</t>
   </si>
@@ -1516,13 +1516,16 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>https://*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,6 +1560,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1575,12 +1586,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1588,8 +1600,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8042DAEA-B780-492C-9168-B70F8C6AE6A2}"/>
@@ -1652,6 +1666,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13385411198600175"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2587,16 +2609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6011,9 +6033,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24689015-1D20-4C62-AD68-66B29563976E}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6055,7 +6079,7 @@
       <c r="A4" t="s">
         <v>350</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>423</v>
       </c>
       <c r="C4" t="s">
@@ -6476,7 +6500,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>456</v>
       </c>
@@ -6484,7 +6508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -6492,7 +6516,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>457</v>
       </c>
@@ -6503,7 +6527,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>458</v>
       </c>
@@ -6511,7 +6535,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>382</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>383</v>
       </c>
@@ -6527,7 +6551,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>459</v>
       </c>
@@ -6535,7 +6559,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>384</v>
       </c>
@@ -6543,7 +6567,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>385</v>
       </c>
@@ -6551,7 +6575,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>460</v>
       </c>
@@ -6562,7 +6586,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -6570,7 +6594,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>461</v>
       </c>
@@ -6581,7 +6605,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>463</v>
       </c>
@@ -6591,8 +6615,15 @@
       <c r="C61" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f>COUNTIF(A2:A98, E61)</f>
+        <v>91</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>387</v>
       </c>
@@ -6600,7 +6631,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>464</v>
       </c>
@@ -6608,7 +6639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>388</v>
       </c>
@@ -6874,8 +6905,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E61" r:id="rId1" xr:uid="{57111336-21D6-400B-B770-7B22AC2EB260}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6884,8 +6918,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
